--- a/results/ANN_tables.xlsx
+++ b/results/ANN_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z003t8hn\code\ML\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53072991-7758-4732-8811-845547161842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2000404-FD29-4E03-A019-C0633C767C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{F8EC4445-7BD3-4740-8DB3-ABF5B85EE629}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>optimizer</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>values</t>
+  </si>
+  <si>
+    <t>LiNYuulo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>duration (hours)</t>
+  </si>
+  <si>
+    <t>Experiment summary</t>
+  </si>
+  <si>
+    <t>trials</t>
+  </si>
+  <si>
+    <t>best result</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -136,6 +154,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAD0FE-FF14-468D-9911-2088364383AC}">
-  <dimension ref="H3:N17"/>
+  <dimension ref="H3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +670,44 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="4">
+        <v>58.8605555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.9012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
